--- a/EVO.xlsx
+++ b/EVO.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F843C6A-0BD2-468B-AB0A-BEFCF6A9384C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6E37ED4-D667-4B9C-B37F-824453D22F35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28890" yWindow="1260" windowWidth="28230" windowHeight="20160" xr2:uid="{864D3289-36CD-4322-9EF8-959513008EB0}"/>
+    <workbookView xWindow="-50820" yWindow="780" windowWidth="28260" windowHeight="20325" xr2:uid="{864D3289-36CD-4322-9EF8-959513008EB0}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Main" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
